--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H2">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I2">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J2">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.027767</v>
+        <v>3.987076</v>
       </c>
       <c r="N2">
-        <v>0.083301</v>
+        <v>11.961228</v>
       </c>
       <c r="O2">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="P2">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="Q2">
-        <v>2.674538154182</v>
+        <v>217.4385813326507</v>
       </c>
       <c r="R2">
-        <v>24.070843387638</v>
+        <v>1956.947231993856</v>
       </c>
       <c r="S2">
-        <v>0.0009386340866241015</v>
+        <v>0.08528230790507936</v>
       </c>
       <c r="T2">
-        <v>0.0009386340866241014</v>
+        <v>0.08528230790507937</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H3">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I3">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J3">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.987076</v>
+        <v>10.131229</v>
       </c>
       <c r="N3">
-        <v>11.961228</v>
+        <v>30.393687</v>
       </c>
       <c r="O3">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918803</v>
       </c>
       <c r="P3">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918804</v>
       </c>
       <c r="Q3">
-        <v>384.038134678696</v>
+        <v>552.5151918138026</v>
       </c>
       <c r="R3">
-        <v>3456.343212108264</v>
+        <v>4972.636726324224</v>
       </c>
       <c r="S3">
-        <v>0.1347788900335246</v>
+        <v>0.2167038177940097</v>
       </c>
       <c r="T3">
-        <v>0.1347788900335245</v>
+        <v>0.2167038177940098</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H4">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I4">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J4">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.255512666666667</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N4">
-        <v>21.766538</v>
+        <v>0.161677</v>
       </c>
       <c r="O4">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="P4">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="Q4">
-        <v>698.8563926657827</v>
+        <v>2.939064242744889</v>
       </c>
       <c r="R4">
-        <v>6289.707533992045</v>
+        <v>26.451578184704</v>
       </c>
       <c r="S4">
-        <v>0.2452649369707302</v>
+        <v>0.00115274014467156</v>
       </c>
       <c r="T4">
-        <v>0.2452649369707302</v>
+        <v>0.00115274014467156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +729,40 @@
         <v>55.394026</v>
       </c>
       <c r="I5">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J5">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.027767</v>
+        <v>3.987076</v>
       </c>
       <c r="N5">
-        <v>0.083301</v>
+        <v>11.961228</v>
       </c>
       <c r="O5">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="P5">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="Q5">
-        <v>0.5127086399806666</v>
+        <v>73.62006386932534</v>
       </c>
       <c r="R5">
-        <v>4.614377759826</v>
+        <v>662.5805748239279</v>
       </c>
       <c r="S5">
-        <v>0.0001799360406356686</v>
+        <v>0.02887476967709884</v>
       </c>
       <c r="T5">
-        <v>0.0001799360406356685</v>
+        <v>0.02887476967709884</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J6">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.987076</v>
+        <v>10.131229</v>
       </c>
       <c r="N6">
-        <v>11.961228</v>
+        <v>30.393687</v>
       </c>
       <c r="O6">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918803</v>
       </c>
       <c r="P6">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918804</v>
       </c>
       <c r="Q6">
-        <v>73.62006386932534</v>
+        <v>187.0698542126513</v>
       </c>
       <c r="R6">
-        <v>662.5805748239279</v>
+        <v>1683.628687913862</v>
       </c>
       <c r="S6">
-        <v>0.02583709688311661</v>
+        <v>0.0733712886137471</v>
       </c>
       <c r="T6">
-        <v>0.0258370968831166</v>
+        <v>0.07337128861374713</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +853,40 @@
         <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J7">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>7.255512666666667</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N7">
-        <v>21.766538</v>
+        <v>0.161677</v>
       </c>
       <c r="O7">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="P7">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="Q7">
-        <v>133.9706857668876</v>
+        <v>0.9951044379557776</v>
       </c>
       <c r="R7">
-        <v>1205.736171901988</v>
+        <v>8.955939941601999</v>
       </c>
       <c r="S7">
-        <v>0.04701725868916128</v>
+        <v>0.0003902932154695411</v>
       </c>
       <c r="T7">
-        <v>0.04701725868916127</v>
+        <v>0.0003902932154695412</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H8">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I8">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J8">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.027767</v>
+        <v>3.987076</v>
       </c>
       <c r="N8">
-        <v>0.083301</v>
+        <v>11.961228</v>
       </c>
       <c r="O8">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="P8">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="Q8">
-        <v>0.420036490361</v>
+        <v>50.06316027433466</v>
       </c>
       <c r="R8">
-        <v>3.780328413249001</v>
+        <v>450.568442469012</v>
       </c>
       <c r="S8">
-        <v>0.0001474125792007533</v>
+        <v>0.0196354383065322</v>
       </c>
       <c r="T8">
-        <v>0.0001474125792007533</v>
+        <v>0.0196354383065322</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H9">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I9">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J9">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.987076</v>
+        <v>10.131229</v>
       </c>
       <c r="N9">
-        <v>11.961228</v>
+        <v>30.393687</v>
       </c>
       <c r="O9">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918803</v>
       </c>
       <c r="P9">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918804</v>
       </c>
       <c r="Q9">
-        <v>60.31322828690801</v>
+        <v>127.2113551893636</v>
       </c>
       <c r="R9">
-        <v>542.819054582172</v>
+        <v>1144.902196704273</v>
       </c>
       <c r="S9">
-        <v>0.02116703844957765</v>
+        <v>0.04989398797485924</v>
       </c>
       <c r="T9">
-        <v>0.02116703844957765</v>
+        <v>0.04989398797485925</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H10">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>7.255512666666667</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N10">
-        <v>21.766538</v>
+        <v>0.161677</v>
       </c>
       <c r="O10">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="P10">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="Q10">
-        <v>109.7554678674847</v>
+        <v>0.6766915206092221</v>
       </c>
       <c r="R10">
-        <v>987.7992108073622</v>
+        <v>6.090223685482999</v>
       </c>
       <c r="S10">
-        <v>0.03851888340897715</v>
+        <v>0.0002654074279902704</v>
       </c>
       <c r="T10">
-        <v>0.03851888340897715</v>
+        <v>0.0002654074279902705</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H11">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I11">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J11">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.027767</v>
+        <v>3.987076</v>
       </c>
       <c r="N11">
-        <v>0.083301</v>
+        <v>11.961228</v>
       </c>
       <c r="O11">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="P11">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="Q11">
-        <v>3.412825059897</v>
+        <v>376.1685384306947</v>
       </c>
       <c r="R11">
-        <v>30.715425539073</v>
+        <v>3385.516845876252</v>
       </c>
       <c r="S11">
-        <v>0.001197737234705487</v>
+        <v>0.1475383113798533</v>
       </c>
       <c r="T11">
-        <v>0.001197737234705486</v>
+        <v>0.1475383113798534</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H12">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I12">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J12">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.987076</v>
+        <v>10.131229</v>
       </c>
       <c r="N12">
-        <v>11.961228</v>
+        <v>30.393687</v>
       </c>
       <c r="O12">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918803</v>
       </c>
       <c r="P12">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918804</v>
       </c>
       <c r="Q12">
-        <v>490.049083030716</v>
+        <v>955.8507551490536</v>
       </c>
       <c r="R12">
-        <v>4410.441747276443</v>
+        <v>8602.656796341484</v>
       </c>
       <c r="S12">
-        <v>0.1719836274282642</v>
+        <v>0.3748973982092641</v>
       </c>
       <c r="T12">
-        <v>0.1719836274282642</v>
+        <v>0.3748973982092642</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H13">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I13">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J13">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>7.255512666666667</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N13">
-        <v>21.766538</v>
+        <v>0.161677</v>
       </c>
       <c r="O13">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="P13">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="Q13">
-        <v>891.7706432527859</v>
+        <v>5.084578338265889</v>
       </c>
       <c r="R13">
-        <v>8025.935789275073</v>
+        <v>45.76120504439299</v>
       </c>
       <c r="S13">
-        <v>0.3129685481954825</v>
+        <v>0.001994239351424498</v>
       </c>
       <c r="T13">
-        <v>0.3129685481954825</v>
+        <v>0.001994239351424499</v>
       </c>
     </row>
   </sheetData>
